--- a/medicine/Enfance/Castor_Poche/Castor_Poche.xlsx
+++ b/medicine/Enfance/Castor_Poche/Castor_Poche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Castor Poche est une collection française de littérature d'enfance et de jeunesse des éditions Flammarion, créée en 1980 et toujours en activité. C'est l'une des principales collections de poche pour la jeunesse en France, avec plus de 1700 titres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castor Poche est une collection française de littérature d'enfance et de jeunesse des éditions Flammarion, créée en 1980 et toujours en activité. C'est l'une des principales collections de poche pour la jeunesse en France, avec plus de 1700 titres.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection naît en 1980, au sein de l'atelier Père Castor, afin de créer une collection de poche en littérature de jeunesse chez Flammarion. Elle est dirigée par François Faucher et Martine Lang[2]. Ses titres s'adressent aux jeunes entre huit et treize ans[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection naît en 1980, au sein de l'atelier Père Castor, afin de créer une collection de poche en littérature de jeunesse chez Flammarion. Elle est dirigée par François Faucher et Martine Lang. Ses titres s'adressent aux jeunes entre huit et treize ans.
 La collection reprend aussi quelques titres parus dans la Bibliothèque du chat perché.
 En 1984, est créée la collection "Castor Poche senior" destinée aux adolescents.
 </t>
@@ -544,7 +558,9 @@
           <t>Quelques titres parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>David Almond, Skellig
 Marie Amaury, Le Cheval d'ombre
